--- a/Marker_for_segments_v3.xlsx
+++ b/Marker_for_segments_v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nihno-my.sharepoint.com/personal/patrickm_nih_no/Documents/Desktop/PaTrack/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="8_{E9821C15-2C34-4406-B36C-F875156CD235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA383367-17F8-4CCC-9E74-8BEB7C2B294E}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="8_{E9821C15-2C34-4406-B36C-F875156CD235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91307276-F83C-4CD0-AB78-A0951F69FBB5}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="12675" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HIP" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="74">
   <si>
     <t>SIPS_right</t>
   </si>
@@ -236,12 +236,6 @@
     <t>RH</t>
   </si>
   <si>
-    <t>Exter</t>
-  </si>
-  <si>
-    <t>PSISR</t>
-  </si>
-  <si>
     <t>head_front_right</t>
   </si>
   <si>
@@ -249,6 +243,15 @@
   </si>
   <si>
     <t>RFRONTAL</t>
+  </si>
+  <si>
+    <t>JONATAN</t>
+  </si>
+  <si>
+    <t>RLKN</t>
+  </si>
+  <si>
+    <t>RMKN</t>
   </si>
 </sst>
 </file>
@@ -569,10 +572,10 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -627,10 +630,19 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -641,13 +653,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3AA1F8A-4AE7-4AE4-A11D-032FCCDC6A29}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" customWidth="1"/>
@@ -698,6 +710,17 @@
         <v>50</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -705,13 +728,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E9700EA-EC0F-4B9D-8397-E27A673D903C}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -756,6 +779,17 @@
       </c>
       <c r="C3" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -765,13 +799,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB3C54E-08D5-426D-B0D4-43E03AC328B3}">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -927,6 +964,11 @@
       </c>
       <c r="R3" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -942,7 +984,7 @@
       <selection activeCell="A3" sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -998,18 +1040,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4A358AE-925E-4528-9475-AB0D2E0D3C86}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1017,7 +1059,7 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1025,7 +1067,7 @@
         <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
